--- a/va_facility_data_2025-02-20/Manila VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Manila%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Manila VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Manila%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R52e828bb6e2a442a86c1fc168b599039"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd4fe19e04d2d4547b3a06abe95315fd5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re32e407edc084381a0bb06a1d715e0a7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8e688d76e06544a790634b383749aa26"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2164fa197ee04e7ab5c7b2d62ad8de09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra1ed38ed02c44399ac97e9aaf3d90987"/>
   </x:sheets>
 </x:workbook>
 </file>
